--- a/medicine/Enfance/André_Roche/André_Roche.xlsx
+++ b/medicine/Enfance/André_Roche/André_Roche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Roche</t>
+          <t>André_Roche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Roche, né en 1952 en France, est un dessinateur, illustrateur, animateur, auteur de bande dessinée et de livre jeunesse français actif en Allemagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Roche</t>
+          <t>André_Roche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Roche est diplômé BTH du lycée hôtelier Alexandre Dumas de Strasbourg et commence sa carrière en travaillant dans des établissements en Allemagne pour parfaire ses connaissances de cette langue à Munich (Bavière), ville dans laquelle il s'établira définitivement en 1971.
 Il apprend les techniques du cinéma d'animation dans des studios munichois (Linda Film, Cineplast)[Lesquels ?] et se met à son compte en 1975 pour les maisons d'édition et la publicité.
-En tant que dessinateur et illustrateur, il crée avec son équipe d'auteurs et de dessinateurs environ 160 histoires de bande dessinée ainsi que de nombreuses illustrations de produits dérivés de Maya l'abeille ainsi que de Nils Holgersson, du petit Panda Pandi-Panda, de Tom et Jerry, d’Alice au pays des merveilles, de Vic le viking, Heidi, Mickey Mouse, Donald Duck et la Panthère Rose, créant au besoin de nouveaux personnages adaptés au style de chaque série, ce qui lui valut le titre de « meilleur adapteur de personnages sous licence en Allemagne »[1].
+En tant que dessinateur et illustrateur, il crée avec son équipe d'auteurs et de dessinateurs environ 160 histoires de bande dessinée ainsi que de nombreuses illustrations de produits dérivés de Maya l'abeille ainsi que de Nils Holgersson, du petit Panda Pandi-Panda, de Tom et Jerry, d’Alice au pays des merveilles, de Vic le viking, Heidi, Mickey Mouse, Donald Duck et la Panthère Rose, créant au besoin de nouveaux personnages adaptés au style de chaque série, ce qui lui valut le titre de « meilleur adapteur de personnages sous licence en Allemagne ».
 Parallèlement, il réalisa des pages de couverture, des illustrations et des caricatures pour diverses revues telles que Das Rechtsmagazin (une revue spécialisée dans la juridiction), Das Industriemagazin (une revue traitant les thèmes industriels) ou Die Funkschau (une revue spécialisée dans les techniques électroniques).
 En tant que cofondateur de l'Association allemande pour la bande dessinée ICOM fondée en 1981, André Roche appartient au groupe d'auteurs de bande dessinée qui sollicitent l'office culturel de la ville d'Erlangen pour la création un Salon de la bande dessinée en 1984. Depuis lors, ce Salon a lieu tous les deux ans.
 À partir de 1983, André Roche crée des figurines pour l'œuf en chocolat Kinder Surprise de l'entreprise Ferrero. Les premières sont des personnages secondaires des séries Happy Frogs (1986) et Tapsy Törtels (1987). Il dessine également des maquettes et les puzzles pour les séries sous licence Tao Tao, Pumuckl, Le Livre de la jungle, Donald Duck, Les Aristochats et Mickey Mouse pour Disney, Maya l'abeille pour Apollo Film, Les Schtroumpfs pour Peyo.
-Il créa en 1987 pour Ferrero les Happy Hippos, qui réapparurent au cours des années suivantes dans plusieurs déclinaisons : Les Hippos Fitness, Les Happy Hippos en croisière de rêve, L'entreprise des Happy Hippos, Le mariage des Happy Hippos, Les Happy Hippos Stars d'Hollywood, l'Hipperium[2] (une parodie autorisée par George Lucas de sa trilogie Star Wars) et le Casting des Hippos. La popularité des personnages Happy Hippos mena Ferrero à placer en 1993 un nouveau produit sur le marché, le
+Il créa en 1987 pour Ferrero les Happy Hippos, qui réapparurent au cours des années suivantes dans plusieurs déclinaisons : Les Hippos Fitness, Les Happy Hippos en croisière de rêve, L'entreprise des Happy Hippos, Le mariage des Happy Hippos, Les Happy Hippos Stars d'Hollywood, l'Hipperium (une parodie autorisée par George Lucas de sa trilogie Star Wars) et le Casting des Hippos. La popularité des personnages Happy Hippos mena Ferrero à placer en 1993 un nouveau produit sur le marché, le
 Happy Hippo Snack / Happy Hippo Cacao.
 Suivirent d'autres de ses créations, comme les Crazy Crocos, les Petits Pingos, les Tiny Tortues, les Drolly Dinos, les Éléphantos, les Bingo Birds (des corneilles jouant au tennis) et les Éco Lapins, ces séries portant de différents noms suivant les pays dans lesquels elles furent distribuées. Plusieurs d'entre elles furent réemployées pour les campagnes publicitaires d'autres produits de Ferrero.
 André Roche réalisa également pour ces séries les spots publicitaires télévisés en dessin animé pour le marché germanophone.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Roche</t>
+          <t>André_Roche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,8 +567,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livre illustré
-Rauchen Sie?, d'Eckart Frimberger, Socio-Medico-Verlag/Planegg, 1974.
+          <t>Livre illustré</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rauchen Sie?, d'Eckart Frimberger, Socio-Medico-Verlag/Planegg, 1974.
 Hits &amp; Songs, de Mike Eulner et Jacky Dreksler, Cologne, Édition Metropol Musik Verlag, 1982.
 Guitar Instrumentals, de Mike Eulner, Cologne, Édition Metropol Musik Verlag, 1983.
 « Vic le Viking », trois histoires dans le recueil de BD Peliculas, t.62, Ediciones Recreativas, 1984 ; Taurus Film, 1977.
@@ -564,9 +583,43 @@
 Auf der Baustelle, Pestalozzi Verlag, 2007  (ISBN 3-614-53237-2).
 Bei der Feuerwehr, Pestalozzi Verlag, 2007  (ISBN 3-614-53236-4).
 Im Zoo, Schwager &amp; Steinlein Verlag, 2007.
-Dinosaurier, Pestalozzi Verlag, 2007  (ISBN 3-614-53238-0).
-Illustration pour la presse
-Industriemagazin, Verlag moderne Industrie A, illustration des titres des numéros 4/83, 3/84 et 2/85
+Dinosaurier, Pestalozzi Verlag, 2007  (ISBN 3-614-53238-0).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Roche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustration pour la presse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Industriemagazin, Verlag moderne Industrie A, illustration des titres des numéros 4/83, 3/84 et 2/85
 Computer-Schau, Franzis-Verlag, illustration dans le numéro 5/85
 Rechtsmagazin für die Wirtschaft, Richard Boorberg Verlag, nombreux cartoons pour les numéros de 3/86 à 7/88
 Funkschau - Magazin für elektronische Kommunikation, plusieurs illustrations de titres entre 1982 et 1985
@@ -574,46 +627,116 @@
 CHIP-le magazine du micro-ordinateur, Vogel Verlag &amp; Druck, cartoon de page double dans le numéro 6/90
 Physis Computer, Physis Verlagsgesellschaft mbH, cartoon de page double dans le numéro 490
 Figura - le magazine indépendant du collectionneur, Verlag W. Wächter, Brème, headline de la page de titre
-AV-Live (appelé AV-Invest jusqu'en juin 2006), Wefgo-Verlag, depuis janvier 2006, 1 cartoon dans chaque numéro de cette revue spécialisée dans l'électronique audiovisuelle.
-Illustration de pochette de disque et CD
-Maja + Willi : Ich bin der faule Willi, pochette de disque 45 tours, Deutsche Grammophon, Polydor, Apollo-Film, 1976.
+AV-Live (appelé AV-Invest jusqu'en juin 2006), Wefgo-Verlag, depuis janvier 2006, 1 cartoon dans chaque numéro de cette revue spécialisée dans l'électronique audiovisuelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Roche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustration de pochette de disque et CD</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maja + Willi : Ich bin der faule Willi, pochette de disque 45 tours, Deutsche Grammophon, Polydor, Apollo-Film, 1976.
 Die Biene Maja (Maya l'Abeille) : pochettes de disques 33 tours pour les pièces radiophoniques no 3, 4 et 5, Deutsche Grammophon/POLYDOR, 1976, Apollo-Film
 Captain Future, pochette de disque 33 tours pour l'épisode 2, Deutsche Grammophon/POLYDOR, 1981, Toei Doga
 Nils Holgersson, pochettes de 33 tours pour les pièces radiophoniques 1, 4, 5, 6, 7, 8, 8, 9, 10, Deutsche Grammophon/POLYDOR, 1982, Merchandising München
 Panki, pochettes de 9 cassettes de pièces radiophoniques (1987 &gt; 1989) pour CBS / Tinus Musik Verlag
-Happy Hippos Hits, pochette, calligraphie et livret de CD, 1997, BMG Ariola / Ferrero
-Illustration pour jeux
-Die kleinen Elefanten (Les petits éléphants), série de puzzles publiée en 1992 chez Ravensburger, Roche
+Happy Hippos Hits, pochette, calligraphie et livret de CD, 1997, BMG Ariola / Ferrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Roche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustration pour jeux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Die kleinen Elefanten (Les petits éléphants), série de puzzles publiée en 1992 chez Ravensburger, Roche
 Fröhliche Dschungeltage (joyeuses journées dans la jungle), série de puzzles publiée en 1994 chez Ravensburger, Roche
 Hand in Hand, du jeu chez Alex Randolph, publié par FX Schmid, Munich</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>André_Roche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Création de personnage et illustration publicitaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>André Roche créa de nombreux personnages pour l'industrie, entre autres :
 1967-1987: de nombreux comparses pour les bandes dessinées de Maya l'Abeille.
@@ -633,31 +756,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>André_Roche</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Produits dérivés avec les séries créées par André Roche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'entreprise Ferrero commença en 1996 à faire elle-même du merchandising avec les séries que Roche avait créées pour elle, en plaçant des jouets correspondants plus volumineux dans un nouveau produit similaire au Kinder Surprise mais plus gros appelé Kinder Freude en Allemagne (ou Kinder Maxi / Kinder Gransorpresa dans certains pays).
 BMG/Ariola commercialisa en 1997 le CD Happy Hippo Hits, une compilation de 16 tubes du répertoire musical pop actuel, avec de nouveaux textes et enregistré avec les voix originales des personnages Happy Hippos des films publicitaires de Kinder Surprise. André Roche illustra la pochette du CD et les actions imprimées et réalisa le spot publicitaire pour la télévision.
@@ -667,31 +792,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>André_Roche</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Travaux avec personnages sous licence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La Panthère Rose : série de bandes dessinées d'une page chacune, 1975, Kronen-Zeitung, A-Graz, Mirtsch-Geoffrey D-F
 Die Biene Maja (Maya l'Abeille) : album du Pestalozzi Verlag, 1976 Zuijo Eizo/Apollo Film
@@ -737,31 +864,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>André_Roche</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1971 : animateur au studio Cineplast (Munich) de la série de dessin animé Le Fennec pour la maison de production Telcia Film (Paris).
 1972 : animateur au studio Cineplast (Munich) de séquences de dessin animé pour la série Addams' Family de Hanna Barbera Productions.
@@ -786,31 +915,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>André_Roche</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Roche</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Expositions et salons</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">André Roche présenta ses travaux à divers salons allemands de la bande dessinée (Munich, Erlangen, Francfort).
 Plusieurs expositions à Francfort-sur-Main, Rome, Winterthur et Alba montrèrent une grande partie de ses travaux réalisés pour le produit Kinder Surprise à l'occasion du 30e anniversaire de cette marque.
